--- a/Excels/data/2019.xlsx
+++ b/Excels/data/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE7AF1-53B7-49C8-B1CB-9E8F1F0FD75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED918818-A02B-4F9B-BC2C-CAEB18E23728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7830" yWindow="8010" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{248814F3-DFD3-408A-8DE4-37922A646A1C}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{248814F3-DFD3-408A-8DE4-37922A646A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="6" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="264">
   <si>
     <t>Round</t>
   </si>
@@ -944,6 +944,12 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -998,23 +1004,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1112,6 +1115,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1184,8 +1193,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="11" xr16:uid="{BB335012-A2A9-4EE0-8BDD-28F11D079B10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -1193,6 +1202,7 @@
       <queryTableField id="4" name="No." tableColumnId="4"/>
       <queryTableField id="5" name="Rider" tableColumnId="5"/>
       <queryTableField id="6" name="Rounds" tableColumnId="6"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -1208,9 +1218,9 @@
   <autoFilter ref="A1:E20" xr:uid="{63CEB307-1A36-4A8F-91C5-1B14D2E90341}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5F264BF4-D2CD-42F0-97BE-A965EED4BE0D}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{0048203A-3E08-45CB-BF0D-1F3443D667EE}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6B8FCA2C-79DB-4D22-ADA4-DE73E7FF7F8D}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{34506665-B7E4-454F-8565-11A46F4D420E}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{0048203A-3E08-45CB-BF0D-1F3443D667EE}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{6B8FCA2C-79DB-4D22-ADA4-DE73E7FF7F8D}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{34506665-B7E4-454F-8565-11A46F4D420E}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="32"/>
     <tableColumn id="5" xr3:uid="{9C010603-91EB-4F78-8687-D3F821BFC436}" uniqueName="5" name="Location" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1221,46 +1231,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E7FC25F4-BFCC-4112-84E2-58F1B4E552CF}" name="Table_4__3" displayName="Table_4__3" ref="A1:X32" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:X32" xr:uid="{E7FC25F4-BFCC-4112-84E2-58F1B4E552CF}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{E3306766-6784-4B72-882E-7F6A8E583103}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{6DD123AF-0E85-46C9-BB89-598BC2120635}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BCB908D2-DD7F-4CA1-AFEC-07A9E445E533}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{265B0B16-3CC6-4A31-8527-F1FF20A297CA}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{C4420E66-A9E9-4D43-880F-EF02E5FB7C6F}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{F09BFB00-3B59-402A-8CE4-F170B71D8564}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{D22FE88B-A6BE-443A-B173-017D595AA9E7}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{CD9A8981-2671-41B4-8211-BC05C5023F98}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{343CA001-8B85-4A51-AB48-0C802698E469}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{D7321C6F-AFF7-4709-9FB1-899F3F0A995A}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{1E4AFCA2-23D8-4516-B69C-19E264428313}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{42EED55E-6C22-441B-AE0F-09737EDD0828}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{0299F9B0-2E68-4F51-8CEF-B29D0D549392}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{9D68AF8A-A03B-45D1-90B8-E2E011DD2AB5}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{D5D53423-9818-4134-A1D1-076F27319EF0}" uniqueName="15" name="AUT" queryTableFieldId="15" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{612EA6AE-851D-475D-B5F2-401FD3E7D30F}" uniqueName="16" name="GBR" queryTableFieldId="16" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{C77CED35-C3B9-4091-97E7-CFB1265AA9B8}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{168D68DE-A32B-49C4-9D99-5FC8F38BDD2B}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{7FFF9654-614C-41AE-8A72-1A8AD4F9BC1F}" uniqueName="19" name="THA" queryTableFieldId="19" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{48988371-494C-4FA0-BF14-3618AE092D22}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{741A3197-105A-4BE2-8EBE-857285898544}" uniqueName="21" name="AUS" queryTableFieldId="21" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{9BA26CFF-9DD9-439B-8CF0-B52CBB2D3387}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{D4394BB9-C74C-4AE8-A791-9405EBECC0FB}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{01B0B980-9F4A-4286-83ED-EC5F0E6231A3}" uniqueName="24" name="Pts" queryTableFieldId="24" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E3306766-6784-4B72-882E-7F6A8E583103}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{6DD123AF-0E85-46C9-BB89-598BC2120635}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{BCB908D2-DD7F-4CA1-AFEC-07A9E445E533}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{265B0B16-3CC6-4A31-8527-F1FF20A297CA}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{C4420E66-A9E9-4D43-880F-EF02E5FB7C6F}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{F09BFB00-3B59-402A-8CE4-F170B71D8564}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{D22FE88B-A6BE-443A-B173-017D595AA9E7}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{CD9A8981-2671-41B4-8211-BC05C5023F98}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{343CA001-8B85-4A51-AB48-0C802698E469}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{D7321C6F-AFF7-4709-9FB1-899F3F0A995A}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{1E4AFCA2-23D8-4516-B69C-19E264428313}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{42EED55E-6C22-441B-AE0F-09737EDD0828}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{0299F9B0-2E68-4F51-8CEF-B29D0D549392}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{9D68AF8A-A03B-45D1-90B8-E2E011DD2AB5}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{D5D53423-9818-4134-A1D1-076F27319EF0}" uniqueName="15" name="AUT" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{612EA6AE-851D-475D-B5F2-401FD3E7D30F}" uniqueName="16" name="GBR" queryTableFieldId="16" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{C77CED35-C3B9-4091-97E7-CFB1265AA9B8}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{168D68DE-A32B-49C4-9D99-5FC8F38BDD2B}" uniqueName="18" name="ARA" queryTableFieldId="18" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{7FFF9654-614C-41AE-8A72-1A8AD4F9BC1F}" uniqueName="19" name="THA" queryTableFieldId="19" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{48988371-494C-4FA0-BF14-3618AE092D22}" uniqueName="20" name="JPN" queryTableFieldId="20" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{741A3197-105A-4BE2-8EBE-857285898544}" uniqueName="21" name="AUS" queryTableFieldId="21" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{9BA26CFF-9DD9-439B-8CF0-B52CBB2D3387}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{D4394BB9-C74C-4AE8-A791-9405EBECC0FB}" uniqueName="23" name="VAL" queryTableFieldId="23" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{01B0B980-9F4A-4286-83ED-EC5F0E6231A3}" uniqueName="24" name="Pts" queryTableFieldId="24" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C162954-8C69-4CA2-A313-B965561A924F}" name="Table_0__3" displayName="Table_0__3" ref="A1:G33" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G33" xr:uid="{2C162954-8C69-4CA2-A313-B965561A924F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B9E65721-BE3A-4F3B-9491-783659FB0CDF}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{2A9BB0DE-8C03-4451-A411-8D82D9B5654E}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{768C2584-29EA-4C17-97B6-47DDFEDF1BAD}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{97353F12-BEDA-491D-872F-228176D6D238}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{603F47D7-2925-4100-B353-1C40E14B7820}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{8762780B-E179-4723-A50B-0AE61DCC2373}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C22EDA23-669D-49A1-8CB3-2918276A7349}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C162954-8C69-4CA2-A313-B965561A924F}" name="Table_0__3" displayName="Table_0__3" ref="A1:H33" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H33" xr:uid="{2C162954-8C69-4CA2-A313-B965561A924F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B9E65721-BE3A-4F3B-9491-783659FB0CDF}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2A9BB0DE-8C03-4451-A411-8D82D9B5654E}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{768C2584-29EA-4C17-97B6-47DDFEDF1BAD}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{97353F12-BEDA-491D-872F-228176D6D238}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{603F47D7-2925-4100-B353-1C40E14B7820}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8762780B-E179-4723-A50B-0AE61DCC2373}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C22EDA23-669D-49A1-8CB3-2918276A7349}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{122EB9E2-5B03-4919-80F8-2A5CC2913DB9}" uniqueName="8" name="Class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1599,13 +1610,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>217</v>
       </c>
       <c r="E2" t="s">
@@ -1616,13 +1627,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>219</v>
       </c>
       <c r="E3" t="s">
@@ -1633,13 +1644,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>221</v>
       </c>
       <c r="E4" t="s">
@@ -1650,13 +1661,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>223</v>
       </c>
       <c r="E5" t="s">
@@ -1667,13 +1678,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>225</v>
       </c>
       <c r="E6" t="s">
@@ -1684,13 +1695,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>227</v>
       </c>
       <c r="E7" t="s">
@@ -1701,13 +1712,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>229</v>
       </c>
       <c r="E8" t="s">
@@ -1718,13 +1729,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>231</v>
       </c>
       <c r="E9" t="s">
@@ -1735,13 +1746,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>233</v>
       </c>
       <c r="E10" t="s">
@@ -1752,13 +1763,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>235</v>
       </c>
       <c r="E11" t="s">
@@ -1769,13 +1780,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>237</v>
       </c>
       <c r="E12" t="s">
@@ -1786,13 +1797,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>239</v>
       </c>
       <c r="E13" t="s">
@@ -1803,13 +1814,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>241</v>
       </c>
       <c r="E14" t="s">
@@ -1820,13 +1831,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>243</v>
       </c>
       <c r="E15" t="s">
@@ -1837,13 +1848,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>245</v>
       </c>
       <c r="E16" t="s">
@@ -1854,13 +1865,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>247</v>
       </c>
       <c r="E17" t="s">
@@ -1871,13 +1882,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>249</v>
       </c>
       <c r="E18" t="s">
@@ -1888,13 +1899,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>251</v>
       </c>
       <c r="E19" t="s">
@@ -1905,13 +1916,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>253</v>
       </c>
       <c r="E20" t="s">
@@ -1928,7 +1939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BB078F-C1D0-4D38-8E55-634604147312}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W31" sqref="B2:W31"/>
@@ -2018,1962 +2029,1792 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>147</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>145</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>147</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>145</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>143</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>144</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>147</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>147</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>144</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>154</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>156</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>154</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>79</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>144</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>160</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>154</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>161</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>154</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>143</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="L5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>143</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>156</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>168</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>149</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>161</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>154</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" t="s">
         <v>144</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>149</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>144</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V6" s="1" t="s">
+      <c r="U6" t="s">
+        <v>155</v>
+      </c>
+      <c r="V6" t="s">
         <v>158</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>149</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>156</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>160</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="U7" t="s">
+        <v>155</v>
+      </c>
+      <c r="V7" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X7" s="1" t="s">
+      <c r="W7" t="s">
+        <v>155</v>
+      </c>
+      <c r="X7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="J8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" t="s">
         <v>166</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>166</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>166</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="T8" t="s">
+        <v>155</v>
+      </c>
+      <c r="U8" t="s">
         <v>166</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" t="s">
         <v>163</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" t="s">
         <v>166</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="O9" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>174</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>160</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>154</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" t="s">
         <v>166</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" t="s">
         <v>154</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" t="s">
         <v>156</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>154</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="O10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="Q10" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" t="s">
         <v>75</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>106</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X10" s="1" t="s">
+      <c r="V10" t="s">
+        <v>155</v>
+      </c>
+      <c r="W10" t="s">
+        <v>155</v>
+      </c>
+      <c r="X10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>156</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="N11" t="s">
+        <v>155</v>
+      </c>
+      <c r="O11" t="s">
         <v>160</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="R11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S11" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>159</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" t="s">
         <v>75</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X11" s="1" t="s">
+      <c r="W11" t="s">
+        <v>155</v>
+      </c>
+      <c r="X11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>156</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>159</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>159</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="O12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>156</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>177</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" t="s">
         <v>159</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
         <v>106</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" t="s">
         <v>159</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" t="s">
         <v>160</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
         <v>182</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>156</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
+      <c r="N13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" t="s">
         <v>166</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>174</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>156</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>166</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>64</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" t="s">
         <v>160</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" t="s">
         <v>156</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
         <v>174</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>185</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>160</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>160</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" t="s">
         <v>182</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1" t="s">
+      <c r="X14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>159</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" t="s">
         <v>185</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>174</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="P15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" t="s">
         <v>106</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>156</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="S15" t="s">
+        <v>155</v>
+      </c>
+      <c r="T15" t="s">
         <v>187</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
         <v>160</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" t="s">
         <v>177</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" t="s">
         <v>44</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="H16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>106</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>156</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>159</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" t="s">
         <v>182</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>159</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>177</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>79</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" t="s">
         <v>106</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" t="s">
         <v>180</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
         <v>187</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>159</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>177</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>182</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>160</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>180</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>159</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U17" s="1" t="s">
+      <c r="T17" t="s">
+        <v>155</v>
+      </c>
+      <c r="U17" t="s">
         <v>75</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" t="s">
         <v>190</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" t="s">
         <v>190</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>159</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>182</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>177</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>185</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>177</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>166</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="P18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" t="s">
         <v>182</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>177</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>182</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" t="s">
         <v>180</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" t="s">
         <v>180</v>
       </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1" t="s">
+      <c r="X18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>187</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" t="s">
         <v>174</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="P19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" t="s">
         <v>159</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1" t="s">
+      <c r="X19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>177</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X20" s="1" t="s">
+      <c r="V20" t="s">
+        <v>155</v>
+      </c>
+      <c r="W20" t="s">
+        <v>155</v>
+      </c>
+      <c r="X20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s">
         <v>180</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1" t="s">
+      <c r="P21" t="s">
         <v>174</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" t="s">
         <v>174</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" t="s">
         <v>117</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" t="s">
         <v>185</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" t="s">
         <v>54</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" t="s">
         <v>182</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" t="s">
         <v>174</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" t="s">
         <v>177</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="X21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>187</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>182</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="O22" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" t="s">
         <v>182</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" t="s">
         <v>177</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>187</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s">
         <v>54</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" t="s">
         <v>180</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
+      <c r="U22" t="s">
+        <v>155</v>
+      </c>
+      <c r="W22" t="s">
         <v>159</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1" t="s">
+      <c r="X23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" t="s">
         <v>187</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
         <v>177</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1" t="s">
+      <c r="X24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X25" s="1" t="s">
+      <c r="Q25" t="s">
+        <v>155</v>
+      </c>
+      <c r="W25" t="s">
+        <v>155</v>
+      </c>
+      <c r="X25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>182</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>174</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s">
         <v>187</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" t="s">
         <v>182</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="1" t="s">
+      <c r="N26" t="s">
+        <v>155</v>
+      </c>
+      <c r="O26" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" t="s">
         <v>187</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" t="s">
         <v>119</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" t="s">
         <v>117</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" t="s">
         <v>187</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" t="s">
         <v>182</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" t="s">
         <v>187</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
         <v>182</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>182</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>190</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>174</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="K27" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>187</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" t="s">
         <v>97</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" t="s">
         <v>187</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" t="s">
         <v>187</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" t="s">
         <v>185</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" t="s">
         <v>97</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" t="s">
         <v>185</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" t="s">
         <v>174</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" t="s">
         <v>54</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" t="s">
         <v>174</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>177</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
+      <c r="N28" t="s">
         <v>117</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
+      <c r="P28" t="s">
         <v>106</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
+      <c r="T28" t="s">
         <v>117</v>
       </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1" t="s">
+      <c r="X28" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
+      <c r="R29" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T29" s="1" t="s">
+      <c r="S29" t="s">
+        <v>155</v>
+      </c>
+      <c r="T29" t="s">
         <v>174</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V29" s="1" t="s">
+      <c r="U29" t="s">
+        <v>155</v>
+      </c>
+      <c r="V29" t="s">
         <v>187</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" t="s">
         <v>106</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
+      <c r="K30" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" t="s">
         <v>97</v>
       </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1" t="s">
+      <c r="X30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X31" s="1" t="s">
+      <c r="W31" t="s">
+        <v>155</v>
+      </c>
+      <c r="X31" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3985,10 +3826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1428CA16-2F79-40CC-BCDC-1F6F5989FDF0}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,7 +3843,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4024,728 +3865,818 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>261</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="H8" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>261</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>261</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>261</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>261</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H26" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>261</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="H27" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="H28" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>261</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="H29" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="H30" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="H31" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>261</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="H32" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4849,1576 +4780,1576 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="N5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="R6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="R7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="G8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="T10" s="4" t="s">
+      <c r="S10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="5" t="s">
+      <c r="O11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
+      <c r="K13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="M15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" s="5" t="s">
+      <c r="P15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="N16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="R17" s="5" t="s">
+      <c r="Q17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="T18" s="4"/>
+      <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="I19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="M19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="T20" s="4" t="s">
+      <c r="S20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="F22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="L22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4" t="s">
+      <c r="R22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="G26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="K26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="S26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="5" t="s">
+      <c r="P29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="S29" s="5" t="s">
+      <c r="R29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S29" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
         <v>155</v>
       </c>
     </row>
